--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.608</v>
+        <v>13.019</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.73</v>
+        <v>-12.835</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.034000000000001</v>
+        <v>-8.168000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>12.036</v>
+        <v>12.647</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.714</v>
+        <v>-8.581999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -536,10 +536,10 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.772</v>
+        <v>-13.019</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.306000000000001</v>
+        <v>-8.529</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.918</v>
+        <v>-13.214</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.69</v>
+        <v>-13.297</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.684000000000001</v>
+        <v>-8.386000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.87</v>
+        <v>12.961</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.588</v>
+        <v>12.864</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.828</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.772</v>
+        <v>-12.192</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.062000000000001</v>
+        <v>-8.581000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.92</v>
+        <v>13.067</v>
       </c>
     </row>
     <row r="19">
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.266</v>
+        <v>-12.9</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.594</v>
+        <v>-13.297</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.634</v>
+        <v>-8.146999999999998</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.83</v>
+        <v>13.03</v>
       </c>
     </row>
   </sheetData>
